--- a/ig/main/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/main/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-03T13:05:58+00:00</t>
+    <t>2023-05-03T13:32:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/main/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10930" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10930" uniqueCount="531">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>CDS_BundleTransactionMAJ</t>
+    <t>CDSBundleTransactionMAJ</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T08:01:29+00:00</t>
+    <t>2023-07-03T17:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -818,7 +818,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-1:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
+req-met:POST s'il s’agit d’un nouvel élément ou PUT s'il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
   </si>
   <si>
     <t>Bundle.entry:careTeam.request.url</t>
@@ -940,10 +940,6 @@
     <t>Bundle.entry:patient.request.method</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-2:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
-  </si>
-  <si>
     <t>Bundle.entry:patient.request.url</t>
   </si>
   <si>
@@ -1056,10 +1052,6 @@
     <t>Bundle.entry:relatedPerson.request.method</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-3:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
-  </si>
-  <si>
     <t>Bundle.entry:relatedPerson.request.url</t>
   </si>
   <si>
@@ -1179,10 +1171,6 @@
     <t>Bundle.entry:organization.request.method</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-4:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
-  </si>
-  <si>
     <t>Bundle.entry:organization.request.url</t>
   </si>
   <si>
@@ -1286,10 +1274,6 @@
     <t>Bundle.entry:organizationInterne.request.method</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-7:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
-  </si>
-  <si>
     <t>Bundle.entry:organizationInterne.request.url</t>
   </si>
   <si>
@@ -1405,10 +1389,6 @@
     <t>Bundle.entry:practitionerRoleOrg.request.method</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-8:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
-  </si>
-  <si>
     <t>Bundle.entry:practitionerRoleOrg.request.url</t>
   </si>
   <si>
@@ -1512,10 +1492,6 @@
     <t>Bundle.entry:practitionerRolePro.request.method</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-5:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
-  </si>
-  <si>
     <t>Bundle.entry:practitionerRolePro.request.url</t>
   </si>
   <si>
@@ -1623,10 +1599,6 @@
   </si>
   <si>
     <t>Bundle.entry:practitioner.request.method</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met-6:POST si il s’agit d’un nouvel élément ou PUT si il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
   </si>
   <si>
     <t>Bundle.entry:practitioner.request.url</t>
@@ -2756,10 +2728,10 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S7" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="T7" t="s" s="2">
         <v>34</v>
@@ -3750,7 +3722,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>36</v>
@@ -13038,7 +13010,7 @@
         <v>55</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>34</v>
@@ -13055,7 +13027,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>189</v>
@@ -13169,7 +13141,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>193</v>
@@ -13283,7 +13255,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>196</v>
@@ -13397,7 +13369,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>199</v>
@@ -13511,7 +13483,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>202</v>
@@ -13625,7 +13597,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>205</v>
@@ -13737,7 +13709,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>209</v>
@@ -13849,7 +13821,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>210</v>
@@ -13963,7 +13935,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>211</v>
@@ -14079,7 +14051,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>212</v>
@@ -14193,7 +14165,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>215</v>
@@ -14307,7 +14279,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>218</v>
@@ -14421,7 +14393,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>222</v>
@@ -14535,7 +14507,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>226</v>
@@ -14649,13 +14621,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>34</v>
@@ -14763,7 +14735,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>144</v>
@@ -14875,7 +14847,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>145</v>
@@ -14989,7 +14961,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>146</v>
@@ -15105,7 +15077,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>147</v>
@@ -15217,7 +15189,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>150</v>
@@ -15331,7 +15303,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>154</v>
@@ -15357,13 +15329,13 @@
         <v>34</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15432,7 +15404,7 @@
         <v>34</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>34</v>
@@ -15443,7 +15415,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>159</v>
@@ -15555,7 +15527,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>163</v>
@@ -15667,7 +15639,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>164</v>
@@ -15781,7 +15753,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>165</v>
@@ -15897,7 +15869,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>166</v>
@@ -16011,7 +15983,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>172</v>
@@ -16125,7 +16097,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>177</v>
@@ -16237,7 +16209,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>181</v>
@@ -16349,7 +16321,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>182</v>
@@ -16463,7 +16435,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>183</v>
@@ -16579,7 +16551,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>184</v>
@@ -16676,7 +16648,7 @@
         <v>55</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>331</v>
+        <v>253</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>34</v>
@@ -16693,7 +16665,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>189</v>
@@ -16807,7 +16779,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>193</v>
@@ -16921,7 +16893,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>196</v>
@@ -17035,7 +17007,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>199</v>
@@ -17149,7 +17121,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>202</v>
@@ -17263,7 +17235,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>205</v>
@@ -17375,7 +17347,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>209</v>
@@ -17487,7 +17459,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>210</v>
@@ -17601,7 +17573,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>211</v>
@@ -17717,7 +17689,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>212</v>
@@ -17831,7 +17803,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>215</v>
@@ -17945,7 +17917,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>218</v>
@@ -18059,7 +18031,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>222</v>
@@ -18173,7 +18145,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>226</v>
@@ -18287,13 +18259,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>34</v>
@@ -18401,7 +18373,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>144</v>
@@ -18513,7 +18485,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>145</v>
@@ -18627,7 +18599,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>146</v>
@@ -18743,7 +18715,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>147</v>
@@ -18855,7 +18827,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>150</v>
@@ -18969,7 +18941,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>154</v>
@@ -18995,13 +18967,13 @@
         <v>34</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -19064,13 +19036,13 @@
         <v>34</v>
       </c>
       <c r="AJ150" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL150" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>34</v>
@@ -19081,7 +19053,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>159</v>
@@ -19193,7 +19165,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>163</v>
@@ -19305,7 +19277,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>164</v>
@@ -19419,7 +19391,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>165</v>
@@ -19535,7 +19507,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>166</v>
@@ -19649,7 +19621,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>172</v>
@@ -19763,7 +19735,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>177</v>
@@ -19875,7 +19847,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>181</v>
@@ -19987,7 +19959,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>182</v>
@@ -20101,7 +20073,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>183</v>
@@ -20217,7 +20189,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>184</v>
@@ -20314,7 +20286,7 @@
         <v>55</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>371</v>
+        <v>253</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>34</v>
@@ -20331,7 +20303,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>189</v>
@@ -20445,7 +20417,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>193</v>
@@ -20559,7 +20531,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>196</v>
@@ -20673,7 +20645,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>199</v>
@@ -20787,7 +20759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>202</v>
@@ -20901,7 +20873,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>205</v>
@@ -21013,7 +20985,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>209</v>
@@ -21125,7 +21097,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>210</v>
@@ -21239,7 +21211,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>211</v>
@@ -21355,7 +21327,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>212</v>
@@ -21469,7 +21441,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>215</v>
@@ -21583,7 +21555,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>218</v>
@@ -21697,7 +21669,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>222</v>
@@ -21811,7 +21783,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>226</v>
@@ -21925,13 +21897,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>34</v>
@@ -22039,7 +22011,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>144</v>
@@ -22151,7 +22123,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>145</v>
@@ -22265,7 +22237,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>146</v>
@@ -22381,7 +22353,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>147</v>
@@ -22493,7 +22465,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>150</v>
@@ -22607,7 +22579,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>154</v>
@@ -22633,13 +22605,13 @@
         <v>34</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -22702,13 +22674,13 @@
         <v>34</v>
       </c>
       <c r="AJ182" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL182" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>34</v>
@@ -22719,7 +22691,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>159</v>
@@ -22831,7 +22803,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>163</v>
@@ -22943,7 +22915,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>164</v>
@@ -23057,7 +23029,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>165</v>
@@ -23173,7 +23145,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>166</v>
@@ -23287,7 +23259,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>172</v>
@@ -23401,7 +23373,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>177</v>
@@ -23513,7 +23485,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>181</v>
@@ -23625,7 +23597,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>182</v>
@@ -23739,7 +23711,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>183</v>
@@ -23855,7 +23827,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>184</v>
@@ -23952,7 +23924,7 @@
         <v>55</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>406</v>
+        <v>253</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>34</v>
@@ -23969,7 +23941,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>189</v>
@@ -24083,7 +24055,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>193</v>
@@ -24197,7 +24169,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>196</v>
@@ -24311,7 +24283,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>199</v>
@@ -24425,7 +24397,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>202</v>
@@ -24539,7 +24511,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>205</v>
@@ -24651,7 +24623,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>209</v>
@@ -24763,7 +24735,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>210</v>
@@ -24877,7 +24849,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>211</v>
@@ -24993,7 +24965,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>212</v>
@@ -25107,7 +25079,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>215</v>
@@ -25221,7 +25193,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>218</v>
@@ -25335,7 +25307,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>222</v>
@@ -25449,7 +25421,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>226</v>
@@ -25563,13 +25535,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>34</v>
@@ -25677,7 +25649,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>144</v>
@@ -25789,7 +25761,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>145</v>
@@ -25903,7 +25875,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>146</v>
@@ -26019,7 +25991,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>147</v>
@@ -26131,7 +26103,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>150</v>
@@ -26245,7 +26217,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>154</v>
@@ -26271,13 +26243,13 @@
         <v>34</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -26343,10 +26315,10 @@
         <v>241</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>34</v>
@@ -26357,7 +26329,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>159</v>
@@ -26469,7 +26441,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>163</v>
@@ -26581,7 +26553,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>164</v>
@@ -26695,7 +26667,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>165</v>
@@ -26811,7 +26783,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>166</v>
@@ -26925,7 +26897,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>172</v>
@@ -27039,7 +27011,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>177</v>
@@ -27151,7 +27123,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>181</v>
@@ -27263,7 +27235,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>182</v>
@@ -27377,7 +27349,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>183</v>
@@ -27493,7 +27465,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>184</v>
@@ -27590,7 +27562,7 @@
         <v>55</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>445</v>
+        <v>253</v>
       </c>
       <c r="AK225" t="s" s="2">
         <v>34</v>
@@ -27607,7 +27579,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>189</v>
@@ -27721,7 +27693,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>193</v>
@@ -27835,7 +27807,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>196</v>
@@ -27949,7 +27921,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>199</v>
@@ -28063,7 +28035,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>202</v>
@@ -28177,7 +28149,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>205</v>
@@ -28289,7 +28261,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>209</v>
@@ -28401,7 +28373,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>210</v>
@@ -28515,7 +28487,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>211</v>
@@ -28631,7 +28603,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>212</v>
@@ -28745,7 +28717,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>215</v>
@@ -28859,7 +28831,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>218</v>
@@ -28973,7 +28945,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>222</v>
@@ -29087,7 +29059,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>226</v>
@@ -29201,13 +29173,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D240" t="s" s="2">
         <v>34</v>
@@ -29315,7 +29287,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>144</v>
@@ -29427,7 +29399,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>145</v>
@@ -29541,7 +29513,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>146</v>
@@ -29657,7 +29629,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>147</v>
@@ -29769,7 +29741,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>150</v>
@@ -29883,7 +29855,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>154</v>
@@ -29909,13 +29881,13 @@
         <v>34</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -29981,10 +29953,10 @@
         <v>241</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AM246" t="s" s="2">
         <v>34</v>
@@ -29995,7 +29967,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>159</v>
@@ -30107,7 +30079,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>163</v>
@@ -30219,7 +30191,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>164</v>
@@ -30333,7 +30305,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>165</v>
@@ -30449,7 +30421,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>166</v>
@@ -30563,7 +30535,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>172</v>
@@ -30677,7 +30649,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>177</v>
@@ -30789,7 +30761,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>181</v>
@@ -30901,7 +30873,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>182</v>
@@ -31015,7 +30987,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>183</v>
@@ -31131,7 +31103,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>184</v>
@@ -31228,7 +31200,7 @@
         <v>55</v>
       </c>
       <c r="AJ257" t="s" s="2">
-        <v>480</v>
+        <v>253</v>
       </c>
       <c r="AK257" t="s" s="2">
         <v>34</v>
@@ -31245,7 +31217,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>189</v>
@@ -31359,7 +31331,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>193</v>
@@ -31473,7 +31445,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>196</v>
@@ -31587,7 +31559,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>199</v>
@@ -31701,7 +31673,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>202</v>
@@ -31815,7 +31787,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>205</v>
@@ -31927,7 +31899,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>209</v>
@@ -32039,7 +32011,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>210</v>
@@ -32153,7 +32125,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>211</v>
@@ -32269,7 +32241,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>212</v>
@@ -32383,7 +32355,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>215</v>
@@ -32497,7 +32469,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>218</v>
@@ -32611,7 +32583,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>222</v>
@@ -32725,7 +32697,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>226</v>
@@ -32839,13 +32811,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D272" t="s" s="2">
         <v>34</v>
@@ -32953,7 +32925,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>144</v>
@@ -33065,7 +33037,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>145</v>
@@ -33179,7 +33151,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>146</v>
@@ -33295,7 +33267,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>147</v>
@@ -33407,7 +33379,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>150</v>
@@ -33521,7 +33493,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>154</v>
@@ -33547,13 +33519,13 @@
         <v>34</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="N278" s="2"/>
       <c r="O278" s="2"/>
@@ -33619,10 +33591,10 @@
         <v>241</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AL278" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>34</v>
@@ -33633,7 +33605,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>159</v>
@@ -33745,7 +33717,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>163</v>
@@ -33857,7 +33829,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>164</v>
@@ -33971,7 +33943,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>165</v>
@@ -34087,7 +34059,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>166</v>
@@ -34201,7 +34173,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>172</v>
@@ -34315,7 +34287,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>177</v>
@@ -34427,7 +34399,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>181</v>
@@ -34539,7 +34511,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>182</v>
@@ -34653,7 +34625,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>183</v>
@@ -34769,7 +34741,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>184</v>
@@ -34866,7 +34838,7 @@
         <v>55</v>
       </c>
       <c r="AJ289" t="s" s="2">
-        <v>517</v>
+        <v>253</v>
       </c>
       <c r="AK289" t="s" s="2">
         <v>34</v>
@@ -34883,7 +34855,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>189</v>
@@ -34997,7 +34969,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>193</v>
@@ -35111,7 +35083,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>196</v>
@@ -35225,7 +35197,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>199</v>
@@ -35339,7 +35311,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>202</v>
@@ -35453,7 +35425,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>205</v>
@@ -35565,7 +35537,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>209</v>
@@ -35677,7 +35649,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>210</v>
@@ -35791,7 +35763,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>211</v>
@@ -35907,7 +35879,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>212</v>
@@ -36021,7 +35993,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>215</v>
@@ -36135,7 +36107,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>218</v>
@@ -36249,7 +36221,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>222</v>
@@ -36363,7 +36335,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>226</v>
@@ -36477,10 +36449,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -36503,19 +36475,19 @@
         <v>44</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="O304" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="P304" t="s" s="2">
         <v>34</v>
@@ -36564,7 +36536,7 @@
         <v>34</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AG304" t="s" s="2">
         <v>35</v>

--- a/ig/main/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/main/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-03T17:03:39+00:00</t>
+    <t>2023-07-03T17:56:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/main/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T09:00:00+00:00</t>
+    <t>2024-02-15T16:01:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
